--- a/Code/Results/Cases/Case_0_68/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_68/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9705228343068363</v>
+        <v>1.021690843904739</v>
       </c>
       <c r="D2">
-        <v>0.9792193293364498</v>
+        <v>1.024335558322903</v>
       </c>
       <c r="E2">
-        <v>0.9863086982493313</v>
+        <v>1.031020845341375</v>
       </c>
       <c r="F2">
-        <v>0.9874298964896546</v>
+        <v>1.038574876731988</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9936224252940066</v>
+        <v>1.026880887232522</v>
       </c>
       <c r="K2">
-        <v>0.9909759698792142</v>
+        <v>1.027164360691542</v>
       </c>
       <c r="L2">
-        <v>0.9979621285733274</v>
+        <v>1.033830170034837</v>
       </c>
       <c r="M2">
-        <v>0.9990671758266201</v>
+        <v>1.041362520405702</v>
       </c>
       <c r="N2">
-        <v>1.001219799709379</v>
+        <v>1.012902122864228</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9763780637656008</v>
+        <v>1.022915699364301</v>
       </c>
       <c r="D3">
-        <v>0.9843779612353724</v>
+        <v>1.025472823016219</v>
       </c>
       <c r="E3">
-        <v>0.9914200871722371</v>
+        <v>1.032148780016428</v>
       </c>
       <c r="F3">
-        <v>0.9932779169638517</v>
+        <v>1.039878878316175</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9975340771030941</v>
+        <v>1.027742038119587</v>
       </c>
       <c r="K3">
-        <v>0.9952147099218538</v>
+        <v>1.028107796482225</v>
       </c>
       <c r="L3">
-        <v>1.00216393962459</v>
+        <v>1.034765724350206</v>
       </c>
       <c r="M3">
-        <v>1.003997536843052</v>
+        <v>1.042475259291092</v>
       </c>
       <c r="N3">
-        <v>1.002610256183353</v>
+        <v>1.013198654409765</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9800758050945613</v>
+        <v>1.02370846351063</v>
       </c>
       <c r="D4">
-        <v>0.9876423908517309</v>
+        <v>1.02620923292253</v>
       </c>
       <c r="E4">
-        <v>0.9946548410623527</v>
+        <v>1.03287913268215</v>
       </c>
       <c r="F4">
-        <v>0.9969794586038553</v>
+        <v>1.040723474215049</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.000003280211385</v>
+        <v>1.028299001338134</v>
       </c>
       <c r="K4">
-        <v>0.997892285544938</v>
+        <v>1.028718212256756</v>
       </c>
       <c r="L4">
-        <v>1.004818208431111</v>
+        <v>1.035371015438443</v>
       </c>
       <c r="M4">
-        <v>1.00711447612598</v>
+        <v>1.043195552127368</v>
       </c>
       <c r="N4">
-        <v>1.003486544079796</v>
+        <v>1.013390147115894</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9816095831089607</v>
+        <v>1.024041791797004</v>
       </c>
       <c r="D5">
-        <v>0.9889979584909758</v>
+        <v>1.026518946372309</v>
       </c>
       <c r="E5">
-        <v>0.9959981338686733</v>
+        <v>1.033186294828395</v>
       </c>
       <c r="F5">
-        <v>0.9985167691500076</v>
+        <v>1.041078740419355</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.001027157178789</v>
+        <v>1.028533087849028</v>
       </c>
       <c r="K5">
-        <v>0.9990030224328311</v>
+        <v>1.028974820251849</v>
       </c>
       <c r="L5">
-        <v>1.005919279588922</v>
+        <v>1.035625463062534</v>
       </c>
       <c r="M5">
-        <v>1.008408077953859</v>
+        <v>1.043498430967107</v>
       </c>
       <c r="N5">
-        <v>1.003849543074476</v>
+        <v>1.013470559150397</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9818659229188728</v>
+        <v>1.024097762092454</v>
       </c>
       <c r="D6">
-        <v>0.9892246017609253</v>
+        <v>1.026570956094561</v>
       </c>
       <c r="E6">
-        <v>0.9962227275551389</v>
+        <v>1.033237875890924</v>
       </c>
       <c r="F6">
-        <v>0.9987738130255516</v>
+        <v>1.041138402848368</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.001198257242498</v>
+        <v>1.028572388471619</v>
       </c>
       <c r="K6">
-        <v>0.9991886645087346</v>
+        <v>1.029017905266288</v>
       </c>
       <c r="L6">
-        <v>1.00610330627869</v>
+        <v>1.035668184991954</v>
       </c>
       <c r="M6">
-        <v>1.008624318828511</v>
+        <v>1.043549289674496</v>
       </c>
       <c r="N6">
-        <v>1.003910182032137</v>
+        <v>1.013484055325069</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9800963797428706</v>
+        <v>1.023712917259372</v>
       </c>
       <c r="D7">
-        <v>0.9876605689868293</v>
+        <v>1.026213370829142</v>
       </c>
       <c r="E7">
-        <v>0.9946728544079378</v>
+        <v>1.032883236517172</v>
       </c>
       <c r="F7">
-        <v>0.9970000729667731</v>
+        <v>1.040728220518781</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.000017016188215</v>
+        <v>1.028302129451087</v>
       </c>
       <c r="K7">
-        <v>0.9979071849989714</v>
+        <v>1.028721641106223</v>
       </c>
       <c r="L7">
-        <v>1.004832978221466</v>
+        <v>1.035374415444324</v>
       </c>
       <c r="M7">
-        <v>1.007131826133465</v>
+        <v>1.04319959894115</v>
       </c>
       <c r="N7">
-        <v>1.003491415401949</v>
+        <v>1.013391221944717</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.972521117080435</v>
+        <v>1.022104749281811</v>
       </c>
       <c r="D8">
-        <v>0.9809784464362825</v>
+        <v>1.024719794660997</v>
       </c>
       <c r="E8">
-        <v>0.9880516561244224</v>
+        <v>1.031401932699479</v>
       </c>
       <c r="F8">
-        <v>0.9894239325607597</v>
+        <v>1.039015401568393</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.994957602789409</v>
+        <v>1.027171971539206</v>
       </c>
       <c r="K8">
-        <v>0.9924223941123393</v>
+        <v>1.027483210386509</v>
       </c>
       <c r="L8">
-        <v>0.9993959452688638</v>
+        <v>1.034146361289477</v>
       </c>
       <c r="M8">
-        <v>1.00074909516628</v>
+        <v>1.041738519439615</v>
       </c>
       <c r="N8">
-        <v>1.001694697546551</v>
+        <v>1.013002416517993</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9584256261914993</v>
+        <v>1.019272392115521</v>
       </c>
       <c r="D9">
-        <v>0.968601098759228</v>
+        <v>1.022091871198491</v>
       </c>
       <c r="E9">
-        <v>0.9757891541375222</v>
+        <v>1.028795482072915</v>
       </c>
       <c r="F9">
-        <v>0.975396285604452</v>
+        <v>1.036003390439822</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9855370130975859</v>
+        <v>1.0251784526174</v>
       </c>
       <c r="K9">
-        <v>0.9822250077650824</v>
+        <v>1.025300496739728</v>
       </c>
       <c r="L9">
-        <v>0.989287641273118</v>
+        <v>1.031981742428134</v>
       </c>
       <c r="M9">
-        <v>0.9889015659825284</v>
+        <v>1.039165957157511</v>
       </c>
       <c r="N9">
-        <v>0.9983386673168404</v>
+        <v>1.012314349007886</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9484497661349559</v>
+        <v>1.017384984856246</v>
       </c>
       <c r="D10">
-        <v>0.9598844147796536</v>
+        <v>1.02034248893598</v>
       </c>
       <c r="E10">
-        <v>0.9671550714018952</v>
+        <v>1.027060314229686</v>
       </c>
       <c r="F10">
-        <v>0.9655194642066273</v>
+        <v>1.03399943006943</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.9788692507718155</v>
+        <v>1.023847995584439</v>
       </c>
       <c r="K10">
-        <v>0.975017818465207</v>
+        <v>1.023844978841961</v>
       </c>
       <c r="L10">
-        <v>0.9821438019598506</v>
+        <v>1.030538160295124</v>
       </c>
       <c r="M10">
-        <v>0.9805404908935124</v>
+        <v>1.037452191705204</v>
       </c>
       <c r="N10">
-        <v>0.9959574846269152</v>
+        <v>1.011853645171917</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9439734677529938</v>
+        <v>1.016567882665679</v>
       </c>
       <c r="D11">
-        <v>0.9559846128729678</v>
+        <v>1.019585575667658</v>
       </c>
       <c r="E11">
-        <v>0.9632927263695279</v>
+        <v>1.026309532453585</v>
       </c>
       <c r="F11">
-        <v>0.9611006771835042</v>
+        <v>1.033132626194481</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.9758781735693288</v>
+        <v>1.023271533123659</v>
       </c>
       <c r="K11">
-        <v>0.9717872349165985</v>
+        <v>1.023214616269054</v>
       </c>
       <c r="L11">
-        <v>0.9789417562837179</v>
+        <v>1.029912935901777</v>
       </c>
       <c r="M11">
-        <v>0.9767954524064771</v>
+        <v>1.036710392232467</v>
       </c>
       <c r="N11">
-        <v>0.9948882458638288</v>
+        <v>1.011653679462174</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9422853860952407</v>
+        <v>1.016264395459755</v>
       </c>
       <c r="D12">
-        <v>0.9545157781621584</v>
+        <v>1.019304509815652</v>
       </c>
       <c r="E12">
-        <v>0.9618380836733444</v>
+        <v>1.026030740622867</v>
       </c>
       <c r="F12">
-        <v>0.9594363377594168</v>
+        <v>1.032810793105167</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9747504056270315</v>
+        <v>1.023057352782321</v>
       </c>
       <c r="K12">
-        <v>0.9705695354961158</v>
+        <v>1.02298045281515</v>
       </c>
       <c r="L12">
-        <v>0.9777348395796298</v>
+        <v>1.029680676484269</v>
       </c>
       <c r="M12">
-        <v>0.9753842407604089</v>
+        <v>1.036434893748596</v>
       </c>
       <c r="N12">
-        <v>0.9944849633783827</v>
+        <v>1.011579331165185</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.942648665760612</v>
+        <v>1.016329493592705</v>
       </c>
       <c r="D13">
-        <v>0.954831790207217</v>
+        <v>1.019364795558032</v>
       </c>
       <c r="E13">
-        <v>0.9621510384315139</v>
+        <v>1.026090538737243</v>
       </c>
       <c r="F13">
-        <v>0.9597944137611866</v>
+        <v>1.032879821258317</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9749930931443772</v>
+        <v>1.023103297775152</v>
       </c>
       <c r="K13">
-        <v>0.9708315587514444</v>
+        <v>1.023030682544738</v>
       </c>
       <c r="L13">
-        <v>0.9779945413678072</v>
+        <v>1.02973049799565</v>
       </c>
       <c r="M13">
-        <v>0.9756878859331223</v>
+        <v>1.036493987382411</v>
       </c>
       <c r="N13">
-        <v>0.9945717523635956</v>
+        <v>1.011595282396544</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9438344595827662</v>
+        <v>1.016542795907518</v>
       </c>
       <c r="D14">
-        <v>0.955863620916139</v>
+        <v>1.019562340944288</v>
       </c>
       <c r="E14">
-        <v>0.9631729016857159</v>
+        <v>1.026286485772477</v>
       </c>
       <c r="F14">
-        <v>0.9609635818682579</v>
+        <v>1.033106020600885</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9757853005834268</v>
+        <v>1.023253830071778</v>
       </c>
       <c r="K14">
-        <v>0.971686948388967</v>
+        <v>1.023195260636443</v>
       </c>
       <c r="L14">
-        <v>0.9788423572360405</v>
+        <v>1.029893737749411</v>
       </c>
       <c r="M14">
-        <v>0.9766792206770548</v>
+        <v>1.036687618660719</v>
       </c>
       <c r="N14">
-        <v>0.9948550376067188</v>
+        <v>1.011647535282064</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9445616441421006</v>
+        <v>1.016674221194607</v>
       </c>
       <c r="D15">
-        <v>0.9564966340593938</v>
+        <v>1.019684066443394</v>
       </c>
       <c r="E15">
-        <v>0.9637998112988384</v>
+        <v>1.026407226013614</v>
       </c>
       <c r="F15">
-        <v>0.961680843981609</v>
+        <v>1.033245407492866</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9762711503437235</v>
+        <v>1.023346570452244</v>
       </c>
       <c r="K15">
-        <v>0.9722115960648263</v>
+        <v>1.023296660099797</v>
       </c>
       <c r="L15">
-        <v>0.9793623631586887</v>
+        <v>1.029994312020903</v>
       </c>
       <c r="M15">
-        <v>0.9772873016849121</v>
+        <v>1.036806926371481</v>
       </c>
       <c r="N15">
-        <v>0.9950287559301377</v>
+        <v>1.011679720441768</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9487433888621073</v>
+        <v>1.017439216323486</v>
       </c>
       <c r="D16">
-        <v>0.9601404702905676</v>
+        <v>1.020392734858089</v>
       </c>
       <c r="E16">
-        <v>0.9674086786959701</v>
+        <v>1.027110152733824</v>
       </c>
       <c r="F16">
-        <v>0.9658095933361818</v>
+        <v>1.03405697625593</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.9790654750500101</v>
+        <v>1.023886245659489</v>
       </c>
       <c r="K16">
-        <v>0.9752298066176184</v>
+        <v>1.023886811393775</v>
       </c>
       <c r="L16">
-        <v>0.9823539208082985</v>
+        <v>1.030579651209672</v>
       </c>
       <c r="M16">
-        <v>0.9807862933836502</v>
+        <v>1.037501428055798</v>
       </c>
       <c r="N16">
-        <v>0.9960276102673973</v>
+        <v>1.011866906140499</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9513232924764176</v>
+        <v>1.017919117811125</v>
       </c>
       <c r="D17">
-        <v>0.9623916063026799</v>
+        <v>1.020837418041759</v>
       </c>
       <c r="E17">
-        <v>0.9696383488895515</v>
+        <v>1.027551228051581</v>
       </c>
       <c r="F17">
-        <v>0.968360292372343</v>
+        <v>1.034566297647292</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.9807896959043215</v>
+        <v>1.024224670625149</v>
       </c>
       <c r="K17">
-        <v>0.9770928250981018</v>
+        <v>1.02425696610334</v>
       </c>
       <c r="L17">
-        <v>0.9842005278335468</v>
+        <v>1.030946779363451</v>
       </c>
       <c r="M17">
-        <v>0.9829467950650504</v>
+        <v>1.037937142071137</v>
       </c>
       <c r="N17">
-        <v>0.9966436856736552</v>
+        <v>1.011984194602441</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9528131228331362</v>
+        <v>1.018199051623163</v>
       </c>
       <c r="D18">
-        <v>0.963692658446711</v>
+        <v>1.021096850381806</v>
       </c>
       <c r="E18">
-        <v>0.9709270416140612</v>
+        <v>1.027808553720032</v>
       </c>
       <c r="F18">
-        <v>0.9698344860339911</v>
+        <v>1.034863465530955</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9817854633906409</v>
+        <v>1.024422032995243</v>
       </c>
       <c r="K18">
-        <v>0.9781689842258238</v>
+        <v>1.024472860222667</v>
       </c>
       <c r="L18">
-        <v>0.985267220051474</v>
+        <v>1.031160905240654</v>
       </c>
       <c r="M18">
-        <v>0.9841950558448239</v>
+        <v>1.038191313094061</v>
       </c>
       <c r="N18">
-        <v>0.9969993770078208</v>
+        <v>1.012052560889342</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9533186280136881</v>
+        <v>1.018294504512702</v>
       </c>
       <c r="D19">
-        <v>0.9641342898608227</v>
+        <v>1.02118531968617</v>
       </c>
       <c r="E19">
-        <v>0.9713644854203992</v>
+        <v>1.027896304318693</v>
       </c>
       <c r="F19">
-        <v>0.9703348914204397</v>
+        <v>1.03496480732389</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9821233409584945</v>
+        <v>1.024489322541735</v>
       </c>
       <c r="K19">
-        <v>0.9785341793730967</v>
+        <v>1.024546472745361</v>
       </c>
       <c r="L19">
-        <v>0.985629204679465</v>
+        <v>1.031233914345796</v>
       </c>
       <c r="M19">
-        <v>0.9846186987679661</v>
+        <v>1.038277983385228</v>
       </c>
       <c r="N19">
-        <v>0.9971200496846729</v>
+        <v>1.012075864218767</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9510480558175284</v>
+        <v>1.017867627352105</v>
       </c>
       <c r="D20">
-        <v>0.9621513315616133</v>
+        <v>1.020789701949645</v>
       </c>
       <c r="E20">
-        <v>0.9694003603796392</v>
+        <v>1.027503899283301</v>
       </c>
       <c r="F20">
-        <v>0.9680880432555826</v>
+        <v>1.034511643060461</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9806057394886052</v>
+        <v>1.024188364480831</v>
       </c>
       <c r="K20">
-        <v>0.9768940361574319</v>
+        <v>1.024217253142233</v>
       </c>
       <c r="L20">
-        <v>0.984003488651472</v>
+        <v>1.030907391423384</v>
       </c>
       <c r="M20">
-        <v>0.9827162367280911</v>
+        <v>1.037890391364986</v>
       </c>
       <c r="N20">
-        <v>0.9965779673308558</v>
+        <v>1.011971615430321</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9434859893734341</v>
+        <v>1.016479983136562</v>
       </c>
       <c r="D21">
-        <v>0.9555603443791943</v>
+        <v>1.01950416640786</v>
       </c>
       <c r="E21">
-        <v>0.9628725524028036</v>
+        <v>1.026228782006593</v>
       </c>
       <c r="F21">
-        <v>0.9606199402410815</v>
+        <v>1.03303940678444</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9755524873101054</v>
+        <v>1.02320950363501</v>
       </c>
       <c r="K21">
-        <v>0.9714355569153486</v>
+        <v>1.023146797020599</v>
       </c>
       <c r="L21">
-        <v>0.9785931908720419</v>
+        <v>1.029845668365232</v>
       </c>
       <c r="M21">
-        <v>0.9763878652460913</v>
+        <v>1.036630598018782</v>
       </c>
       <c r="N21">
-        <v>0.9947717893767282</v>
+        <v>1.011632150103402</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9385834912712947</v>
+        <v>1.015607635870914</v>
       </c>
       <c r="D22">
-        <v>0.9512982100562227</v>
+        <v>1.018696392602322</v>
       </c>
       <c r="E22">
-        <v>0.9586517693287203</v>
+        <v>1.025427538414887</v>
       </c>
       <c r="F22">
-        <v>0.9557903978711094</v>
+        <v>1.032114541764025</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9722777538070603</v>
+        <v>1.022593727210534</v>
       </c>
       <c r="K22">
-        <v>0.9679003958206629</v>
+        <v>1.022473649605804</v>
       </c>
       <c r="L22">
-        <v>0.975089388582928</v>
+        <v>1.02917798567144</v>
       </c>
       <c r="M22">
-        <v>0.9722916513841084</v>
+        <v>1.035838739815563</v>
       </c>
       <c r="N22">
-        <v>0.9936005480207813</v>
+        <v>1.011418297299844</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9411970867720774</v>
+        <v>1.016070073231401</v>
       </c>
       <c r="D23">
-        <v>0.9535693606233883</v>
+        <v>1.019124562618863</v>
       </c>
       <c r="E23">
-        <v>0.960900835389239</v>
+        <v>1.025852248541194</v>
       </c>
       <c r="F23">
-        <v>0.958363935751836</v>
+        <v>1.032604756279734</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.9740234101700499</v>
+        <v>1.022920193533505</v>
       </c>
       <c r="K23">
-        <v>0.969784672624127</v>
+        <v>1.022830508683171</v>
       </c>
       <c r="L23">
-        <v>0.9769569346131328</v>
+        <v>1.029531950268401</v>
       </c>
       <c r="M23">
-        <v>0.974474761335359</v>
+        <v>1.036258498291527</v>
       </c>
       <c r="N23">
-        <v>0.9942249608951518</v>
+        <v>1.011531704399516</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9511724695841345</v>
+        <v>1.017890893626573</v>
       </c>
       <c r="D24">
-        <v>0.9622599383445569</v>
+        <v>1.020811262624286</v>
       </c>
       <c r="E24">
-        <v>0.9695079336167464</v>
+        <v>1.027525284949973</v>
       </c>
       <c r="F24">
-        <v>0.9682111027745058</v>
+        <v>1.034536338839679</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.980688892112155</v>
+        <v>1.024204769773426</v>
       </c>
       <c r="K24">
-        <v>0.9769838927060519</v>
+        <v>1.024235197753533</v>
       </c>
       <c r="L24">
-        <v>0.9840925542343216</v>
+        <v>1.030925189180637</v>
       </c>
       <c r="M24">
-        <v>0.9828204528586001</v>
+        <v>1.037911515915169</v>
       </c>
       <c r="N24">
-        <v>0.9966076738878992</v>
+        <v>1.011977299559188</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9621656349244978</v>
+        <v>1.020004467820774</v>
       </c>
       <c r="D25">
-        <v>0.9718782045810911</v>
+        <v>1.02277079354933</v>
       </c>
       <c r="E25">
-        <v>0.9790355851587873</v>
+        <v>1.029468871081094</v>
       </c>
       <c r="F25">
-        <v>0.9791098436414111</v>
+        <v>1.036781345557515</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9880369878437153</v>
+        <v>1.025694074112749</v>
       </c>
       <c r="K25">
-        <v>0.9849293481154525</v>
+        <v>1.025864840905051</v>
       </c>
       <c r="L25">
-        <v>0.9919683050629023</v>
+        <v>1.032541431143883</v>
       </c>
       <c r="M25">
-        <v>0.9920413465569722</v>
+        <v>1.039830793941406</v>
       </c>
       <c r="N25">
-        <v>0.9992303662701054</v>
+        <v>1.012492581078627</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_68/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_68/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.021690843904739</v>
+        <v>0.9705228343068356</v>
       </c>
       <c r="D2">
-        <v>1.024335558322903</v>
+        <v>0.9792193293364491</v>
       </c>
       <c r="E2">
-        <v>1.031020845341375</v>
+        <v>0.9863086982493303</v>
       </c>
       <c r="F2">
-        <v>1.038574876731988</v>
+        <v>0.9874298964896536</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.026880887232522</v>
+        <v>0.9936224252940059</v>
       </c>
       <c r="K2">
-        <v>1.027164360691542</v>
+        <v>0.9909759698792137</v>
       </c>
       <c r="L2">
-        <v>1.033830170034837</v>
+        <v>0.9979621285733263</v>
       </c>
       <c r="M2">
-        <v>1.041362520405702</v>
+        <v>0.9990671758266191</v>
       </c>
       <c r="N2">
-        <v>1.012902122864228</v>
+        <v>1.001219799709379</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.022915699364301</v>
+        <v>0.9763780637656007</v>
       </c>
       <c r="D3">
-        <v>1.025472823016219</v>
+        <v>0.9843779612353722</v>
       </c>
       <c r="E3">
-        <v>1.032148780016428</v>
+        <v>0.9914200871722366</v>
       </c>
       <c r="F3">
-        <v>1.039878878316175</v>
+        <v>0.9932779169638514</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.027742038119587</v>
+        <v>0.9975340771030941</v>
       </c>
       <c r="K3">
-        <v>1.028107796482225</v>
+        <v>0.9952147099218538</v>
       </c>
       <c r="L3">
-        <v>1.034765724350206</v>
+        <v>1.00216393962459</v>
       </c>
       <c r="M3">
-        <v>1.042475259291092</v>
+        <v>1.003997536843052</v>
       </c>
       <c r="N3">
-        <v>1.013198654409765</v>
+        <v>1.002610256183353</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.02370846351063</v>
+        <v>0.9800758050945608</v>
       </c>
       <c r="D4">
-        <v>1.02620923292253</v>
+        <v>0.9876423908517303</v>
       </c>
       <c r="E4">
-        <v>1.03287913268215</v>
+        <v>0.9946548410623522</v>
       </c>
       <c r="F4">
-        <v>1.040723474215049</v>
+        <v>0.996979458603855</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.028299001338134</v>
+        <v>1.000003280211384</v>
       </c>
       <c r="K4">
-        <v>1.028718212256756</v>
+        <v>0.9978922855449376</v>
       </c>
       <c r="L4">
-        <v>1.035371015438443</v>
+        <v>1.004818208431111</v>
       </c>
       <c r="M4">
-        <v>1.043195552127368</v>
+        <v>1.00711447612598</v>
       </c>
       <c r="N4">
-        <v>1.013390147115894</v>
+        <v>1.003486544079795</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.024041791797004</v>
+        <v>0.9816095831089607</v>
       </c>
       <c r="D5">
-        <v>1.026518946372309</v>
+        <v>0.9889979584909759</v>
       </c>
       <c r="E5">
-        <v>1.033186294828395</v>
+        <v>0.9959981338686729</v>
       </c>
       <c r="F5">
-        <v>1.041078740419355</v>
+        <v>0.9985167691500072</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.028533087849028</v>
+        <v>1.001027157178789</v>
       </c>
       <c r="K5">
-        <v>1.028974820251849</v>
+        <v>0.9990030224328312</v>
       </c>
       <c r="L5">
-        <v>1.035625463062534</v>
+        <v>1.005919279588922</v>
       </c>
       <c r="M5">
-        <v>1.043498430967107</v>
+        <v>1.008408077953859</v>
       </c>
       <c r="N5">
-        <v>1.013470559150397</v>
+        <v>1.003849543074476</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.024097762092454</v>
+        <v>0.9818659229188733</v>
       </c>
       <c r="D6">
-        <v>1.026570956094561</v>
+        <v>0.989224601760926</v>
       </c>
       <c r="E6">
-        <v>1.033237875890924</v>
+        <v>0.9962227275551393</v>
       </c>
       <c r="F6">
-        <v>1.041138402848368</v>
+        <v>0.9987738130255519</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.028572388471619</v>
+        <v>1.001198257242498</v>
       </c>
       <c r="K6">
-        <v>1.029017905266288</v>
+        <v>0.9991886645087353</v>
       </c>
       <c r="L6">
-        <v>1.035668184991954</v>
+        <v>1.00610330627869</v>
       </c>
       <c r="M6">
-        <v>1.043549289674496</v>
+        <v>1.008624318828512</v>
       </c>
       <c r="N6">
-        <v>1.013484055325069</v>
+        <v>1.003910182032137</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.023712917259372</v>
+        <v>0.9800963797428698</v>
       </c>
       <c r="D7">
-        <v>1.026213370829142</v>
+        <v>0.9876605689868284</v>
       </c>
       <c r="E7">
-        <v>1.032883236517172</v>
+        <v>0.994672854407937</v>
       </c>
       <c r="F7">
-        <v>1.040728220518781</v>
+        <v>0.9970000729667721</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.028302129451087</v>
+        <v>1.000017016188214</v>
       </c>
       <c r="K7">
-        <v>1.028721641106223</v>
+        <v>0.9979071849989707</v>
       </c>
       <c r="L7">
-        <v>1.035374415444324</v>
+        <v>1.004832978221465</v>
       </c>
       <c r="M7">
-        <v>1.04319959894115</v>
+        <v>1.007131826133464</v>
       </c>
       <c r="N7">
-        <v>1.013391221944717</v>
+        <v>1.003491415401949</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.022104749281811</v>
+        <v>0.9725211170804349</v>
       </c>
       <c r="D8">
-        <v>1.024719794660997</v>
+        <v>0.9809784464362823</v>
       </c>
       <c r="E8">
-        <v>1.031401932699479</v>
+        <v>0.9880516561244219</v>
       </c>
       <c r="F8">
-        <v>1.039015401568393</v>
+        <v>0.9894239325607591</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.027171971539206</v>
+        <v>0.9949576027894089</v>
       </c>
       <c r="K8">
-        <v>1.027483210386509</v>
+        <v>0.9924223941123393</v>
       </c>
       <c r="L8">
-        <v>1.034146361289477</v>
+        <v>0.9993959452688634</v>
       </c>
       <c r="M8">
-        <v>1.041738519439615</v>
+        <v>1.00074909516628</v>
       </c>
       <c r="N8">
-        <v>1.013002416517993</v>
+        <v>1.001694697546551</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.019272392115521</v>
+        <v>0.9584256261914992</v>
       </c>
       <c r="D9">
-        <v>1.022091871198491</v>
+        <v>0.9686010987592275</v>
       </c>
       <c r="E9">
-        <v>1.028795482072915</v>
+        <v>0.9757891541375218</v>
       </c>
       <c r="F9">
-        <v>1.036003390439822</v>
+        <v>0.9753962856044518</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.0251784526174</v>
+        <v>0.9855370130975856</v>
       </c>
       <c r="K9">
-        <v>1.025300496739728</v>
+        <v>0.9822250077650819</v>
       </c>
       <c r="L9">
-        <v>1.031981742428134</v>
+        <v>0.9892876412731175</v>
       </c>
       <c r="M9">
-        <v>1.039165957157511</v>
+        <v>0.9889015659825282</v>
       </c>
       <c r="N9">
-        <v>1.012314349007886</v>
+        <v>0.9983386673168403</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.017384984856246</v>
+        <v>0.9484497661349554</v>
       </c>
       <c r="D10">
-        <v>1.02034248893598</v>
+        <v>0.959884414779653</v>
       </c>
       <c r="E10">
-        <v>1.027060314229686</v>
+        <v>0.9671550714018945</v>
       </c>
       <c r="F10">
-        <v>1.03399943006943</v>
+        <v>0.9655194642066267</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.023847995584439</v>
+        <v>0.9788692507718151</v>
       </c>
       <c r="K10">
-        <v>1.023844978841961</v>
+        <v>0.9750178184652063</v>
       </c>
       <c r="L10">
-        <v>1.030538160295124</v>
+        <v>0.98214380195985</v>
       </c>
       <c r="M10">
-        <v>1.037452191705204</v>
+        <v>0.9805404908935115</v>
       </c>
       <c r="N10">
-        <v>1.011853645171917</v>
+        <v>0.9959574846269151</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.016567882665679</v>
+        <v>0.9439734677529947</v>
       </c>
       <c r="D11">
-        <v>1.019585575667658</v>
+        <v>0.9559846128729691</v>
       </c>
       <c r="E11">
-        <v>1.026309532453585</v>
+        <v>0.9632927263695289</v>
       </c>
       <c r="F11">
-        <v>1.033132626194481</v>
+        <v>0.9611006771835048</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.023271533123659</v>
+        <v>0.9758781735693299</v>
       </c>
       <c r="K11">
-        <v>1.023214616269054</v>
+        <v>0.9717872349165996</v>
       </c>
       <c r="L11">
-        <v>1.029912935901777</v>
+        <v>0.9789417562837187</v>
       </c>
       <c r="M11">
-        <v>1.036710392232467</v>
+        <v>0.9767954524064779</v>
       </c>
       <c r="N11">
-        <v>1.011653679462174</v>
+        <v>0.9948882458638291</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.016264395459755</v>
+        <v>0.9422853860952392</v>
       </c>
       <c r="D12">
-        <v>1.019304509815652</v>
+        <v>0.9545157781621565</v>
       </c>
       <c r="E12">
-        <v>1.026030740622867</v>
+        <v>0.9618380836733429</v>
       </c>
       <c r="F12">
-        <v>1.032810793105167</v>
+        <v>0.9594363377594156</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.023057352782321</v>
+        <v>0.9747504056270301</v>
       </c>
       <c r="K12">
-        <v>1.02298045281515</v>
+        <v>0.9705695354961141</v>
       </c>
       <c r="L12">
-        <v>1.029680676484269</v>
+        <v>0.9777348395796285</v>
       </c>
       <c r="M12">
-        <v>1.036434893748596</v>
+        <v>0.9753842407604074</v>
       </c>
       <c r="N12">
-        <v>1.011579331165185</v>
+        <v>0.9944849633783822</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.016329493592705</v>
+        <v>0.9426486657606113</v>
       </c>
       <c r="D13">
-        <v>1.019364795558032</v>
+        <v>0.9548317902072165</v>
       </c>
       <c r="E13">
-        <v>1.026090538737243</v>
+        <v>0.9621510384315132</v>
       </c>
       <c r="F13">
-        <v>1.032879821258317</v>
+        <v>0.959794413761185</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.023103297775152</v>
+        <v>0.9749930931443764</v>
       </c>
       <c r="K13">
-        <v>1.023030682544738</v>
+        <v>0.9708315587514438</v>
       </c>
       <c r="L13">
-        <v>1.02973049799565</v>
+        <v>0.9779945413678064</v>
       </c>
       <c r="M13">
-        <v>1.036493987382411</v>
+        <v>0.9756878859331208</v>
       </c>
       <c r="N13">
-        <v>1.011595282396544</v>
+        <v>0.9945717523635953</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.016542795907518</v>
+        <v>0.9438344595827646</v>
       </c>
       <c r="D14">
-        <v>1.019562340944288</v>
+        <v>0.9558636209161375</v>
       </c>
       <c r="E14">
-        <v>1.026286485772477</v>
+        <v>0.9631729016857141</v>
       </c>
       <c r="F14">
-        <v>1.033106020600885</v>
+        <v>0.9609635818682563</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.023253830071778</v>
+        <v>0.9757853005834252</v>
       </c>
       <c r="K14">
-        <v>1.023195260636443</v>
+        <v>0.9716869483889654</v>
       </c>
       <c r="L14">
-        <v>1.029893737749411</v>
+        <v>0.9788423572360387</v>
       </c>
       <c r="M14">
-        <v>1.036687618660719</v>
+        <v>0.9766792206770533</v>
       </c>
       <c r="N14">
-        <v>1.011647535282064</v>
+        <v>0.9948550376067181</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.016674221194607</v>
+        <v>0.9445616441421004</v>
       </c>
       <c r="D15">
-        <v>1.019684066443394</v>
+        <v>0.9564966340593934</v>
       </c>
       <c r="E15">
-        <v>1.026407226013614</v>
+        <v>0.9637998112988382</v>
       </c>
       <c r="F15">
-        <v>1.033245407492866</v>
+        <v>0.9616808439816089</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.023346570452244</v>
+        <v>0.9762711503437232</v>
       </c>
       <c r="K15">
-        <v>1.023296660099797</v>
+        <v>0.972211596064826</v>
       </c>
       <c r="L15">
-        <v>1.029994312020903</v>
+        <v>0.9793623631586885</v>
       </c>
       <c r="M15">
-        <v>1.036806926371481</v>
+        <v>0.9772873016849118</v>
       </c>
       <c r="N15">
-        <v>1.011679720441768</v>
+        <v>0.9950287559301376</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.017439216323486</v>
+        <v>0.9487433888621072</v>
       </c>
       <c r="D16">
-        <v>1.020392734858089</v>
+        <v>0.9601404702905673</v>
       </c>
       <c r="E16">
-        <v>1.027110152733824</v>
+        <v>0.9674086786959696</v>
       </c>
       <c r="F16">
-        <v>1.03405697625593</v>
+        <v>0.9658095933361811</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.023886245659489</v>
+        <v>0.97906547505001</v>
       </c>
       <c r="K16">
-        <v>1.023886811393775</v>
+        <v>0.9752298066176182</v>
       </c>
       <c r="L16">
-        <v>1.030579651209672</v>
+        <v>0.9823539208082981</v>
       </c>
       <c r="M16">
-        <v>1.037501428055798</v>
+        <v>0.9807862933836498</v>
       </c>
       <c r="N16">
-        <v>1.011866906140499</v>
+        <v>0.9960276102673972</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.017919117811125</v>
+        <v>0.9513232924764182</v>
       </c>
       <c r="D17">
-        <v>1.020837418041759</v>
+        <v>0.9623916063026809</v>
       </c>
       <c r="E17">
-        <v>1.027551228051581</v>
+        <v>0.9696383488895518</v>
       </c>
       <c r="F17">
-        <v>1.034566297647292</v>
+        <v>0.968360292372343</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.024224670625149</v>
+        <v>0.9807896959043219</v>
       </c>
       <c r="K17">
-        <v>1.02425696610334</v>
+        <v>0.9770928250981027</v>
       </c>
       <c r="L17">
-        <v>1.030946779363451</v>
+        <v>0.9842005278335472</v>
       </c>
       <c r="M17">
-        <v>1.037937142071137</v>
+        <v>0.9829467950650504</v>
       </c>
       <c r="N17">
-        <v>1.011984194602441</v>
+        <v>0.9966436856736555</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.018199051623163</v>
+        <v>0.9528131228331369</v>
       </c>
       <c r="D18">
-        <v>1.021096850381806</v>
+        <v>0.9636926584467115</v>
       </c>
       <c r="E18">
-        <v>1.027808553720032</v>
+        <v>0.9709270416140616</v>
       </c>
       <c r="F18">
-        <v>1.034863465530955</v>
+        <v>0.9698344860339916</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.024422032995243</v>
+        <v>0.9817854633906414</v>
       </c>
       <c r="K18">
-        <v>1.024472860222667</v>
+        <v>0.9781689842258243</v>
       </c>
       <c r="L18">
-        <v>1.031160905240654</v>
+        <v>0.9852672200514745</v>
       </c>
       <c r="M18">
-        <v>1.038191313094061</v>
+        <v>0.9841950558448243</v>
       </c>
       <c r="N18">
-        <v>1.012052560889342</v>
+        <v>0.9969993770078212</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.018294504512702</v>
+        <v>0.9533186280136876</v>
       </c>
       <c r="D19">
-        <v>1.02118531968617</v>
+        <v>0.9641342898608224</v>
       </c>
       <c r="E19">
-        <v>1.027896304318693</v>
+        <v>0.9713644854203985</v>
       </c>
       <c r="F19">
-        <v>1.03496480732389</v>
+        <v>0.9703348914204388</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.024489322541735</v>
+        <v>0.9821233409584942</v>
       </c>
       <c r="K19">
-        <v>1.024546472745361</v>
+        <v>0.9785341793730964</v>
       </c>
       <c r="L19">
-        <v>1.031233914345796</v>
+        <v>0.9856292046794644</v>
       </c>
       <c r="M19">
-        <v>1.038277983385228</v>
+        <v>0.9846186987679652</v>
       </c>
       <c r="N19">
-        <v>1.012075864218767</v>
+        <v>0.9971200496846729</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.017867627352105</v>
+        <v>0.9510480558175288</v>
       </c>
       <c r="D20">
-        <v>1.020789701949645</v>
+        <v>0.9621513315616137</v>
       </c>
       <c r="E20">
-        <v>1.027503899283301</v>
+        <v>0.9694003603796393</v>
       </c>
       <c r="F20">
-        <v>1.034511643060461</v>
+        <v>0.9680880432555826</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.024188364480831</v>
+        <v>0.9806057394886054</v>
       </c>
       <c r="K20">
-        <v>1.024217253142233</v>
+        <v>0.976894036157432</v>
       </c>
       <c r="L20">
-        <v>1.030907391423384</v>
+        <v>0.984003488651472</v>
       </c>
       <c r="M20">
-        <v>1.037890391364986</v>
+        <v>0.9827162367280909</v>
       </c>
       <c r="N20">
-        <v>1.011971615430321</v>
+        <v>0.9965779673308559</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.016479983136562</v>
+        <v>0.943485989373435</v>
       </c>
       <c r="D21">
-        <v>1.01950416640786</v>
+        <v>0.9555603443791955</v>
       </c>
       <c r="E21">
-        <v>1.026228782006593</v>
+        <v>0.9628725524028041</v>
       </c>
       <c r="F21">
-        <v>1.03303940678444</v>
+        <v>0.9606199402410822</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.02320950363501</v>
+        <v>0.9755524873101062</v>
       </c>
       <c r="K21">
-        <v>1.023146797020599</v>
+        <v>0.9714355569153498</v>
       </c>
       <c r="L21">
-        <v>1.029845668365232</v>
+        <v>0.9785931908720426</v>
       </c>
       <c r="M21">
-        <v>1.036630598018782</v>
+        <v>0.9763878652460919</v>
       </c>
       <c r="N21">
-        <v>1.011632150103402</v>
+        <v>0.9947717893767285</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.015607635870914</v>
+        <v>0.9385834912712946</v>
       </c>
       <c r="D22">
-        <v>1.018696392602322</v>
+        <v>0.9512982100562224</v>
       </c>
       <c r="E22">
-        <v>1.025427538414887</v>
+        <v>0.9586517693287204</v>
       </c>
       <c r="F22">
-        <v>1.032114541764025</v>
+        <v>0.9557903978711099</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.022593727210534</v>
+        <v>0.9722777538070603</v>
       </c>
       <c r="K22">
-        <v>1.022473649605804</v>
+        <v>0.9679003958206629</v>
       </c>
       <c r="L22">
-        <v>1.02917798567144</v>
+        <v>0.9750893885829282</v>
       </c>
       <c r="M22">
-        <v>1.035838739815563</v>
+        <v>0.9722916513841088</v>
       </c>
       <c r="N22">
-        <v>1.011418297299844</v>
+        <v>0.9936005480207815</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.016070073231401</v>
+        <v>0.9411970867720768</v>
       </c>
       <c r="D23">
-        <v>1.019124562618863</v>
+        <v>0.9535693606233876</v>
       </c>
       <c r="E23">
-        <v>1.025852248541194</v>
+        <v>0.9609008353892381</v>
       </c>
       <c r="F23">
-        <v>1.032604756279734</v>
+        <v>0.9583639357518352</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.022920193533505</v>
+        <v>0.9740234101700491</v>
       </c>
       <c r="K23">
-        <v>1.022830508683171</v>
+        <v>0.9697846726241264</v>
       </c>
       <c r="L23">
-        <v>1.029531950268401</v>
+        <v>0.9769569346131323</v>
       </c>
       <c r="M23">
-        <v>1.036258498291527</v>
+        <v>0.9744747613353584</v>
       </c>
       <c r="N23">
-        <v>1.011531704399516</v>
+        <v>0.9942249608951516</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.017890893626573</v>
+        <v>0.9511724695841333</v>
       </c>
       <c r="D24">
-        <v>1.020811262624286</v>
+        <v>0.9622599383445558</v>
       </c>
       <c r="E24">
-        <v>1.027525284949973</v>
+        <v>0.9695079336167454</v>
       </c>
       <c r="F24">
-        <v>1.034536338839679</v>
+        <v>0.968211102774505</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.024204769773426</v>
+        <v>0.980688892112154</v>
       </c>
       <c r="K24">
-        <v>1.024235197753533</v>
+        <v>0.976983892706051</v>
       </c>
       <c r="L24">
-        <v>1.030925189180637</v>
+        <v>0.9840925542343207</v>
       </c>
       <c r="M24">
-        <v>1.037911515915169</v>
+        <v>0.9828204528585993</v>
       </c>
       <c r="N24">
-        <v>1.011977299559188</v>
+        <v>0.9966076738878989</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.020004467820774</v>
+        <v>0.9621656349244968</v>
       </c>
       <c r="D25">
-        <v>1.02277079354933</v>
+        <v>0.9718782045810903</v>
       </c>
       <c r="E25">
-        <v>1.029468871081094</v>
+        <v>0.9790355851587863</v>
       </c>
       <c r="F25">
-        <v>1.036781345557515</v>
+        <v>0.9791098436414094</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.025694074112749</v>
+        <v>0.9880369878437142</v>
       </c>
       <c r="K25">
-        <v>1.025864840905051</v>
+        <v>0.9849293481154516</v>
       </c>
       <c r="L25">
-        <v>1.032541431143883</v>
+        <v>0.9919683050629012</v>
       </c>
       <c r="M25">
-        <v>1.039830793941406</v>
+        <v>0.9920413465569708</v>
       </c>
       <c r="N25">
-        <v>1.012492581078627</v>
+        <v>0.999230366270105</v>
       </c>
     </row>
   </sheetData>
